--- a/biology/Botanique/Swartzia/Swartzia.xlsx
+++ b/biology/Botanique/Swartzia/Swartzia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Swartzia est un genre de la famille des Fabaceae de la sous-famille des Faboideae (Légumineuses) comprenant plus de 180 espèces d'arbres tropicaux. Certains fournissent des bois précieux. 
 L'espèce type est Swartzia alata Willd. (dont le nom correct est Swartzia guianensis (Aubl.) Urb.).
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (20 déc. 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (20 déc. 2021) :
 Swartzia acreana Cowan
 Swartzia acuminata Willd. ex Vogel
 Swartzia acutifolia Vogel
